--- a/data/temperature_jawa-barat.xlsx
+++ b/data/temperature_jawa-barat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Competition\UN Big Data Hackhathon\Data\Data Rata-Rata Suhu Permukaan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\sensei-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484EC25B-9A44-41FF-B65B-E197CC336804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A542736-6A4E-4500-B142-DFC56060854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
   <si>
     <t>months</t>
   </si>
@@ -48,47 +48,14 @@
   <si>
     <t>LPM (%)</t>
   </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April </t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June </t>
-  </si>
-  <si>
-    <t xml:space="preserve">July </t>
-  </si>
-  <si>
-    <t xml:space="preserve">August </t>
-  </si>
-  <si>
-    <t xml:space="preserve">September </t>
-  </si>
-  <si>
-    <t xml:space="preserve">October </t>
-  </si>
-  <si>
-    <t xml:space="preserve">November </t>
-  </si>
-  <si>
-    <t xml:space="preserve">December </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,8 +533,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -926,10 +894,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:G13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.07421875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -955,8 +926,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>42005</v>
       </c>
       <c r="B2">
         <v>23.2</v>
@@ -978,8 +949,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>42036</v>
       </c>
       <c r="B3">
         <v>23.1</v>
@@ -1001,8 +972,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>42064</v>
       </c>
       <c r="B4">
         <v>23.4</v>
@@ -1024,8 +995,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1">
+        <v>42095</v>
       </c>
       <c r="B5">
         <v>23.6</v>
@@ -1047,8 +1018,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>42125</v>
       </c>
       <c r="B6">
         <v>23.4</v>
@@ -1070,8 +1041,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1">
+        <v>42156</v>
       </c>
       <c r="B7">
         <v>23.1</v>
@@ -1093,8 +1064,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>42186</v>
       </c>
       <c r="B8">
         <v>23.1</v>
@@ -1116,8 +1087,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="A9" s="1">
+        <v>42217</v>
       </c>
       <c r="B9">
         <v>23.6</v>
@@ -1139,8 +1110,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="1">
+        <v>42248</v>
       </c>
       <c r="B10">
         <v>23.8</v>
@@ -1162,8 +1133,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="1">
+        <v>42278</v>
       </c>
       <c r="B11">
         <v>24.5</v>
@@ -1185,8 +1156,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="A12" s="1">
+        <v>42309</v>
       </c>
       <c r="B12">
         <v>23.9</v>
@@ -1208,8 +1179,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="1">
+        <v>42339</v>
       </c>
       <c r="B13">
         <v>23.7</v>
@@ -1232,6 +1203,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1240,10 +1212,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1269,8 +1244,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>42370</v>
       </c>
       <c r="B2">
         <v>23.8</v>
@@ -1292,8 +1267,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>42401</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -1315,8 +1290,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>42430</v>
       </c>
       <c r="B4">
         <v>24.1</v>
@@ -1338,8 +1313,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1">
+        <v>42461</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -1361,8 +1336,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>42491</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -1384,8 +1359,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1">
+        <v>42522</v>
       </c>
       <c r="B7">
         <v>23.7</v>
@@ -1407,8 +1382,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>42552</v>
       </c>
       <c r="B8">
         <v>23.3</v>
@@ -1430,8 +1405,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="A9" s="1">
+        <v>42583</v>
       </c>
       <c r="B9">
         <v>23.6</v>
@@ -1453,8 +1428,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="1">
+        <v>42614</v>
       </c>
       <c r="B10">
         <v>23.6</v>
@@ -1476,8 +1451,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="1">
+        <v>42644</v>
       </c>
       <c r="B11">
         <v>23.1</v>
@@ -1499,8 +1474,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="A12" s="1">
+        <v>42675</v>
       </c>
       <c r="B12">
         <v>23.4</v>
@@ -1522,8 +1497,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="1">
+        <v>42705</v>
       </c>
       <c r="B13">
         <v>24.4</v>
@@ -1554,10 +1529,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1583,8 +1561,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>42736</v>
       </c>
       <c r="B2">
         <v>24.2</v>
@@ -1606,8 +1584,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>42767</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -1629,8 +1607,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>42795</v>
       </c>
       <c r="B4">
         <v>23.3</v>
@@ -1652,8 +1630,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1">
+        <v>42826</v>
       </c>
       <c r="B5">
         <v>23.6</v>
@@ -1675,8 +1653,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>42856</v>
       </c>
       <c r="B6">
         <v>23.9</v>
@@ -1698,8 +1676,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1">
+        <v>42887</v>
       </c>
       <c r="B7">
         <v>23.4</v>
@@ -1721,8 +1699,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>42917</v>
       </c>
       <c r="B8">
         <v>23.4</v>
@@ -1744,8 +1722,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="A9" s="1">
+        <v>42948</v>
       </c>
       <c r="B9">
         <v>23.3</v>
@@ -1767,8 +1745,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="1">
+        <v>42979</v>
       </c>
       <c r="B10">
         <v>23.7</v>
@@ -1790,8 +1768,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="1">
+        <v>43009</v>
       </c>
       <c r="B11">
         <v>23.4</v>
@@ -1813,8 +1791,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="A12" s="1">
+        <v>43040</v>
       </c>
       <c r="B12">
         <v>23.1</v>
@@ -1836,8 +1814,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="1">
+        <v>43070</v>
       </c>
       <c r="B13">
         <v>23.9</v>
@@ -1868,10 +1846,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G13"/>
+      <selection activeCell="A13" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1897,8 +1878,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>43101</v>
       </c>
       <c r="B2">
         <v>23.3</v>
@@ -1920,8 +1901,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>43132</v>
       </c>
       <c r="B3">
         <v>23.6</v>
@@ -1943,8 +1924,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>43160</v>
       </c>
       <c r="B4">
         <v>23.6</v>
@@ -1966,8 +1947,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1">
+        <v>43191</v>
       </c>
       <c r="B5">
         <v>23.8</v>
@@ -1989,8 +1970,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>43221</v>
       </c>
       <c r="B6">
         <v>23.7</v>
@@ -2012,8 +1993,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1">
+        <v>43252</v>
       </c>
       <c r="B7">
         <v>23.7</v>
@@ -2035,8 +2016,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>43282</v>
       </c>
       <c r="B8">
         <v>22.9</v>
@@ -2058,8 +2039,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="A9" s="1">
+        <v>43313</v>
       </c>
       <c r="B9">
         <v>23.3</v>
@@ -2081,8 +2062,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="1">
+        <v>43344</v>
       </c>
       <c r="B10">
         <v>23.7</v>
@@ -2104,8 +2085,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="1">
+        <v>43374</v>
       </c>
       <c r="B11">
         <v>24.2</v>
@@ -2127,8 +2108,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="A12" s="1">
+        <v>43405</v>
       </c>
       <c r="B12">
         <v>23.7</v>
@@ -2150,8 +2131,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="1">
+        <v>43435</v>
       </c>
       <c r="B13">
         <v>23.7</v>
@@ -2182,10 +2163,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="B2:G13"/>
+      <selection activeCell="A13" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.3828125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -2211,8 +2195,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>43466</v>
       </c>
       <c r="B2">
         <v>23.7</v>
@@ -2234,8 +2218,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>43497</v>
       </c>
       <c r="B3">
         <v>23.8</v>
@@ -2257,8 +2241,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>43525</v>
       </c>
       <c r="B4">
         <v>23.6</v>
@@ -2280,8 +2264,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1">
+        <v>43556</v>
       </c>
       <c r="B5">
         <v>23.9</v>
@@ -2303,8 +2287,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>43586</v>
       </c>
       <c r="B6">
         <v>23.9</v>
@@ -2326,8 +2310,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1">
+        <v>43617</v>
       </c>
       <c r="B7">
         <v>23.3</v>
@@ -2349,8 +2333,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>43647</v>
       </c>
       <c r="B8">
         <v>22.7</v>
@@ -2372,8 +2356,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="A9" s="1">
+        <v>43678</v>
       </c>
       <c r="B9">
         <v>23</v>
@@ -2395,8 +2379,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="1">
+        <v>43709</v>
       </c>
       <c r="B10">
         <v>23.8</v>
@@ -2418,8 +2402,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="1">
+        <v>43739</v>
       </c>
       <c r="B11">
         <v>24.9</v>
@@ -2441,8 +2425,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="A12" s="1">
+        <v>43770</v>
       </c>
       <c r="B12">
         <v>24.2</v>
@@ -2464,8 +2448,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="1">
+        <v>43800</v>
       </c>
       <c r="B13">
         <v>23.7</v>
@@ -2483,7 +2467,7 @@
         <v>1.08</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2496,10 +2480,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.61328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -2525,8 +2512,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>43831</v>
       </c>
       <c r="B2">
         <v>23.98</v>
@@ -2542,8 +2529,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>43862</v>
       </c>
       <c r="B3">
         <v>23.62</v>
@@ -2559,8 +2546,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>43891</v>
       </c>
       <c r="B4">
         <v>24.05</v>
@@ -2576,8 +2563,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1">
+        <v>43922</v>
       </c>
       <c r="B5">
         <v>23.98</v>
@@ -2593,8 +2580,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>43952</v>
       </c>
       <c r="B6">
         <v>24.04</v>
@@ -2610,8 +2597,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1">
+        <v>43983</v>
       </c>
       <c r="B7">
         <v>23.84</v>
@@ -2627,8 +2614,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>44013</v>
       </c>
       <c r="B8">
         <v>23.06</v>
@@ -2644,8 +2631,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="A9" s="1">
+        <v>44044</v>
       </c>
       <c r="B9">
         <v>23.84</v>
@@ -2661,8 +2648,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="1">
+        <v>44075</v>
       </c>
       <c r="B10">
         <v>24.38</v>
@@ -2678,8 +2665,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="1">
+        <v>44105</v>
       </c>
       <c r="B11">
         <v>23.81</v>
@@ -2695,8 +2682,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="A12" s="1">
+        <v>44136</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -2712,8 +2699,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="1">
+        <v>44166</v>
       </c>
       <c r="B13">
         <v>23.79</v>
@@ -2738,10 +2725,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.3828125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -2767,8 +2757,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>44197</v>
       </c>
       <c r="B2">
         <v>23.32</v>
@@ -2784,8 +2774,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3" s="1">
+        <v>44228</v>
       </c>
       <c r="B3">
         <v>23.48</v>
@@ -2801,8 +2791,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1">
+        <v>44256</v>
       </c>
       <c r="B4">
         <v>23.65</v>
@@ -2818,8 +2808,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1">
+        <v>44287</v>
       </c>
       <c r="B5">
         <v>23.74</v>
@@ -2835,8 +2825,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="1">
+        <v>44317</v>
       </c>
       <c r="B6">
         <v>24.09</v>
@@ -2852,8 +2842,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
+      <c r="A7" s="1">
+        <v>44348</v>
       </c>
       <c r="B7">
         <v>23.49</v>
@@ -2869,8 +2859,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="1">
+        <v>44378</v>
       </c>
       <c r="B8">
         <v>23.14</v>
@@ -2886,8 +2876,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>14</v>
+      <c r="A9" s="1">
+        <v>44409</v>
       </c>
       <c r="B9">
         <v>23.48</v>
@@ -2903,8 +2893,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="A10" s="1">
+        <v>44440</v>
       </c>
       <c r="B10">
         <v>23.84</v>
@@ -2920,8 +2910,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>16</v>
+      <c r="A11" s="1">
+        <v>44470</v>
       </c>
       <c r="B11">
         <v>23.95</v>
@@ -2937,8 +2927,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
+      <c r="A12" s="1">
+        <v>44501</v>
       </c>
       <c r="B12">
         <v>23.43</v>
@@ -2954,8 +2944,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>18</v>
+      <c r="A13" s="1">
+        <v>44531</v>
       </c>
       <c r="B13">
         <v>23.73</v>

--- a/data/temperature_jawa-barat.xlsx
+++ b/data/temperature_jawa-barat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\sensei-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A542736-6A4E-4500-B142-DFC56060854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A57888-9893-4058-8A18-21BC60BD593A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -535,7 +535,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2725,7 +2725,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
